--- a/MatrizODMedellin Modelos/MatrizDT12ptos_All.xlsx
+++ b/MatrizODMedellin Modelos/MatrizDT12ptos_All.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williz/Dropbox/Doctorado/Tesis Doctorado/Avances Tesis/Analisis Datos Tesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sin definir\Desktop\ModelosED\ModelosED\MatrizODMedellin Modelos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{156CD9DE-E1F7-4046-A7CA-722E8A54D3D8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629EEE3-2E80-4507-BA59-CE34117B61EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distancias" sheetId="1" r:id="rId1"/>
@@ -227,12 +227,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -247,8 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,23 +570,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="29" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -619,86 +626,83 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="R1">
+        <v>6</v>
+      </c>
+      <c r="S1">
+        <v>7</v>
+      </c>
+      <c r="T1">
+        <v>8</v>
+      </c>
+      <c r="U1">
+        <v>9</v>
+      </c>
+      <c r="V1">
+        <v>10</v>
+      </c>
+      <c r="W1">
+        <v>11</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>2</v>
+      </c>
+      <c r="AA1">
+        <v>3</v>
+      </c>
+      <c r="AB1">
+        <v>4</v>
+      </c>
+      <c r="AC1">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -741,54 +745,48 @@
       <c r="N2">
         <v>612</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>4142</v>
-      </c>
-      <c r="R2">
-        <v>6898</v>
-      </c>
-      <c r="S2">
-        <v>6716</v>
-      </c>
-      <c r="T2">
-        <v>7999</v>
-      </c>
-      <c r="U2">
-        <v>11537</v>
-      </c>
-      <c r="V2">
-        <v>11777</v>
-      </c>
-      <c r="W2">
-        <v>11325</v>
-      </c>
-      <c r="X2">
-        <v>9744</v>
-      </c>
-      <c r="Y2">
-        <v>7586</v>
-      </c>
-      <c r="Z2">
-        <v>7874</v>
-      </c>
-      <c r="AA2">
-        <v>3366</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>63</v>
-      </c>
       <c r="AE2" t="s">
         <v>63</v>
       </c>
@@ -819,8 +817,14 @@
       <c r="AN2" t="s">
         <v>63</v>
       </c>
+      <c r="AO2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -863,54 +867,51 @@
       <c r="N3">
         <v>498</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>4142</v>
+      </c>
+      <c r="T3">
+        <v>6898</v>
+      </c>
+      <c r="U3">
+        <v>6716</v>
+      </c>
+      <c r="V3">
+        <v>7999</v>
+      </c>
+      <c r="W3">
+        <v>11537</v>
+      </c>
+      <c r="X3">
+        <v>11777</v>
+      </c>
+      <c r="Y3">
+        <v>11325</v>
+      </c>
+      <c r="Z3">
+        <v>9744</v>
+      </c>
+      <c r="AA3">
+        <v>7586</v>
+      </c>
+      <c r="AB3">
+        <v>7874</v>
+      </c>
+      <c r="AC3">
+        <v>3366</v>
+      </c>
+      <c r="AD3" t="s">
         <v>52</v>
       </c>
-      <c r="P3">
-        <v>3408</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>2344</v>
-      </c>
-      <c r="S3">
-        <v>4384</v>
-      </c>
-      <c r="T3">
-        <v>5789</v>
-      </c>
-      <c r="U3">
-        <v>7858</v>
-      </c>
-      <c r="V3">
-        <v>8101</v>
-      </c>
-      <c r="W3">
-        <v>8436</v>
-      </c>
-      <c r="X3">
-        <v>7412</v>
-      </c>
-      <c r="Y3">
-        <v>4039</v>
-      </c>
-      <c r="Z3">
-        <v>4037</v>
-      </c>
-      <c r="AA3">
-        <v>4340</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>63</v>
-      </c>
       <c r="AE3" t="s">
         <v>63</v>
       </c>
@@ -941,8 +942,14 @@
       <c r="AN3" t="s">
         <v>63</v>
       </c>
+      <c r="AO3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -985,54 +992,51 @@
       <c r="N4">
         <v>499</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4">
+        <v>3408</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>2344</v>
+      </c>
+      <c r="U4">
+        <v>4384</v>
+      </c>
+      <c r="V4">
+        <v>5789</v>
+      </c>
+      <c r="W4">
+        <v>7858</v>
+      </c>
+      <c r="X4">
+        <v>8101</v>
+      </c>
+      <c r="Y4">
+        <v>8436</v>
+      </c>
+      <c r="Z4">
+        <v>7412</v>
+      </c>
+      <c r="AA4">
+        <v>4039</v>
+      </c>
+      <c r="AB4">
+        <v>4037</v>
+      </c>
+      <c r="AC4">
+        <v>4340</v>
+      </c>
+      <c r="AD4" t="s">
         <v>53</v>
       </c>
-      <c r="P4">
-        <v>6366</v>
-      </c>
-      <c r="Q4">
-        <v>2895</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>4184</v>
-      </c>
-      <c r="T4">
-        <v>5879</v>
-      </c>
-      <c r="U4">
-        <v>6400</v>
-      </c>
-      <c r="V4">
-        <v>6643</v>
-      </c>
-      <c r="W4">
-        <v>6474</v>
-      </c>
-      <c r="X4">
-        <v>4485</v>
-      </c>
-      <c r="Y4">
-        <v>3343</v>
-      </c>
-      <c r="Z4">
-        <v>4922</v>
-      </c>
-      <c r="AA4">
-        <v>4202</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>63</v>
-      </c>
       <c r="AE4" t="s">
         <v>63</v>
       </c>
@@ -1063,8 +1067,14 @@
       <c r="AN4" t="s">
         <v>63</v>
       </c>
+      <c r="AO4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1107,54 +1117,51 @@
       <c r="N5">
         <v>941</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R5">
+        <v>6366</v>
+      </c>
+      <c r="S5">
+        <v>2895</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>4184</v>
+      </c>
+      <c r="V5">
+        <v>5879</v>
+      </c>
+      <c r="W5">
+        <v>6400</v>
+      </c>
+      <c r="X5">
+        <v>6643</v>
+      </c>
+      <c r="Y5">
+        <v>6474</v>
+      </c>
+      <c r="Z5">
+        <v>4485</v>
+      </c>
+      <c r="AA5">
+        <v>3343</v>
+      </c>
+      <c r="AB5">
+        <v>4922</v>
+      </c>
+      <c r="AC5">
+        <v>4202</v>
+      </c>
+      <c r="AD5" t="s">
         <v>54</v>
       </c>
-      <c r="P5">
-        <v>6124</v>
-      </c>
-      <c r="Q5">
-        <v>3049</v>
-      </c>
-      <c r="R5">
-        <v>2826</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>2215</v>
-      </c>
-      <c r="U5">
-        <v>4011</v>
-      </c>
-      <c r="V5">
-        <v>6118</v>
-      </c>
-      <c r="W5">
-        <v>6092</v>
-      </c>
-      <c r="X5">
-        <v>5976</v>
-      </c>
-      <c r="Y5">
-        <v>4259</v>
-      </c>
-      <c r="Z5">
-        <v>6671</v>
-      </c>
-      <c r="AA5">
-        <v>6184</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>63</v>
-      </c>
       <c r="AE5" t="s">
         <v>63</v>
       </c>
@@ -1185,8 +1192,14 @@
       <c r="AN5" t="s">
         <v>63</v>
       </c>
+      <c r="AO5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1229,54 +1242,51 @@
       <c r="N6">
         <v>935</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6">
+        <v>6124</v>
+      </c>
+      <c r="S6">
+        <v>3049</v>
+      </c>
+      <c r="T6">
+        <v>2826</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>2215</v>
+      </c>
+      <c r="W6">
+        <v>4011</v>
+      </c>
+      <c r="X6">
+        <v>6118</v>
+      </c>
+      <c r="Y6">
+        <v>6092</v>
+      </c>
+      <c r="Z6">
+        <v>5976</v>
+      </c>
+      <c r="AA6">
+        <v>4259</v>
+      </c>
+      <c r="AB6">
+        <v>6671</v>
+      </c>
+      <c r="AC6">
+        <v>6184</v>
+      </c>
+      <c r="AD6" t="s">
         <v>55</v>
       </c>
-      <c r="P6">
-        <v>9686</v>
-      </c>
-      <c r="Q6">
-        <v>5214</v>
-      </c>
-      <c r="R6">
-        <v>5188</v>
-      </c>
-      <c r="S6">
-        <v>2225</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>2126</v>
-      </c>
-      <c r="V6">
-        <v>4221</v>
-      </c>
-      <c r="W6">
-        <v>4556</v>
-      </c>
-      <c r="X6">
-        <v>6361</v>
-      </c>
-      <c r="Y6">
-        <v>5117</v>
-      </c>
-      <c r="Z6">
-        <v>7462</v>
-      </c>
-      <c r="AA6">
-        <v>8738</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>63</v>
-      </c>
       <c r="AE6" t="s">
         <v>63</v>
       </c>
@@ -1307,8 +1317,14 @@
       <c r="AN6" t="s">
         <v>63</v>
       </c>
+      <c r="AO6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -1351,54 +1367,51 @@
       <c r="N7">
         <v>1011</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7">
+        <v>9686</v>
+      </c>
+      <c r="S7">
+        <v>5214</v>
+      </c>
+      <c r="T7">
+        <v>5188</v>
+      </c>
+      <c r="U7">
+        <v>2225</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>2126</v>
+      </c>
+      <c r="X7">
+        <v>4221</v>
+      </c>
+      <c r="Y7">
+        <v>4556</v>
+      </c>
+      <c r="Z7">
+        <v>6361</v>
+      </c>
+      <c r="AA7">
+        <v>5117</v>
+      </c>
+      <c r="AB7">
+        <v>7462</v>
+      </c>
+      <c r="AC7">
+        <v>8738</v>
+      </c>
+      <c r="AD7" t="s">
         <v>56</v>
       </c>
-      <c r="P7">
-        <v>11967</v>
-      </c>
-      <c r="Q7">
-        <v>9007</v>
-      </c>
-      <c r="R7">
-        <v>7797</v>
-      </c>
-      <c r="S7">
-        <v>6254</v>
-      </c>
-      <c r="T7">
-        <v>2287</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>2460</v>
-      </c>
-      <c r="W7">
-        <v>5945</v>
-      </c>
-      <c r="X7">
-        <v>8691</v>
-      </c>
-      <c r="Y7">
-        <v>7301</v>
-      </c>
-      <c r="Z7">
-        <v>9743</v>
-      </c>
-      <c r="AA7">
-        <v>11019</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>63</v>
-      </c>
       <c r="AE7" t="s">
         <v>63</v>
       </c>
@@ -1429,8 +1442,14 @@
       <c r="AN7" t="s">
         <v>63</v>
       </c>
+      <c r="AO7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -1473,54 +1492,51 @@
       <c r="N8">
         <v>949</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8">
+        <v>11967</v>
+      </c>
+      <c r="S8">
+        <v>9007</v>
+      </c>
+      <c r="T8">
+        <v>7797</v>
+      </c>
+      <c r="U8">
+        <v>6254</v>
+      </c>
+      <c r="V8">
+        <v>2287</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>2460</v>
+      </c>
+      <c r="Y8">
+        <v>5945</v>
+      </c>
+      <c r="Z8">
+        <v>8691</v>
+      </c>
+      <c r="AA8">
+        <v>7301</v>
+      </c>
+      <c r="AB8">
+        <v>9743</v>
+      </c>
+      <c r="AC8">
+        <v>11019</v>
+      </c>
+      <c r="AD8" t="s">
         <v>57</v>
       </c>
-      <c r="P8">
-        <v>10667</v>
-      </c>
-      <c r="Q8">
-        <v>7722</v>
-      </c>
-      <c r="R8">
-        <v>5520</v>
-      </c>
-      <c r="S8">
-        <v>4732</v>
-      </c>
-      <c r="T8">
-        <v>3291</v>
-      </c>
-      <c r="U8">
-        <v>2286</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>3683</v>
-      </c>
-      <c r="X8">
-        <v>7034</v>
-      </c>
-      <c r="Y8">
-        <v>6087</v>
-      </c>
-      <c r="Z8">
-        <v>9628</v>
-      </c>
-      <c r="AA8">
-        <v>9719</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>63</v>
-      </c>
       <c r="AE8" t="s">
         <v>63</v>
       </c>
@@ -1551,8 +1567,14 @@
       <c r="AN8" t="s">
         <v>63</v>
       </c>
+      <c r="AO8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1595,54 +1617,51 @@
       <c r="N9">
         <v>1025</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="1">
+        <v>10667</v>
+      </c>
+      <c r="S9" s="1">
+        <v>7722</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5520</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4732</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3291</v>
+      </c>
+      <c r="W9" s="1">
+        <v>2286</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3683</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>7034</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>6087</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>9628</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>9719</v>
+      </c>
+      <c r="AD9" t="s">
         <v>58</v>
       </c>
-      <c r="P9">
-        <v>10731</v>
-      </c>
-      <c r="Q9">
-        <v>7370</v>
-      </c>
-      <c r="R9">
-        <v>5833</v>
-      </c>
-      <c r="S9">
-        <v>5357</v>
-      </c>
-      <c r="T9">
-        <v>5808</v>
-      </c>
-      <c r="U9">
-        <v>6382</v>
-      </c>
-      <c r="V9">
-        <v>5146</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>2661</v>
-      </c>
-      <c r="Y9">
-        <v>4171</v>
-      </c>
-      <c r="Z9">
-        <v>5522</v>
-      </c>
-      <c r="AA9">
-        <v>9784</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>63</v>
-      </c>
       <c r="AE9" t="s">
         <v>63</v>
       </c>
@@ -1673,8 +1692,14 @@
       <c r="AN9" t="s">
         <v>63</v>
       </c>
+      <c r="AO9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1717,54 +1742,51 @@
       <c r="N10">
         <v>1143</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10">
+        <v>10731</v>
+      </c>
+      <c r="S10">
+        <v>7370</v>
+      </c>
+      <c r="T10">
+        <v>5833</v>
+      </c>
+      <c r="U10">
+        <v>5357</v>
+      </c>
+      <c r="V10">
+        <v>5808</v>
+      </c>
+      <c r="W10">
+        <v>6382</v>
+      </c>
+      <c r="X10">
+        <v>5146</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>2661</v>
+      </c>
+      <c r="AA10">
+        <v>4171</v>
+      </c>
+      <c r="AB10">
+        <v>5522</v>
+      </c>
+      <c r="AC10">
+        <v>9784</v>
+      </c>
+      <c r="AD10" t="s">
         <v>59</v>
       </c>
-      <c r="P10">
-        <v>9469</v>
-      </c>
-      <c r="Q10">
-        <v>6648</v>
-      </c>
-      <c r="R10">
-        <v>4840</v>
-      </c>
-      <c r="S10">
-        <v>7427</v>
-      </c>
-      <c r="T10">
-        <v>6469</v>
-      </c>
-      <c r="U10">
-        <v>8431</v>
-      </c>
-      <c r="V10">
-        <v>6477</v>
-      </c>
-      <c r="W10">
-        <v>3600</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>2884</v>
-      </c>
-      <c r="Z10">
-        <v>3531</v>
-      </c>
-      <c r="AA10">
-        <v>8521</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>63</v>
-      </c>
       <c r="AE10" t="s">
         <v>63</v>
       </c>
@@ -1795,8 +1817,14 @@
       <c r="AN10" t="s">
         <v>63</v>
       </c>
+      <c r="AO10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1839,54 +1867,51 @@
       <c r="N11">
         <v>689</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11">
+        <v>9469</v>
+      </c>
+      <c r="S11">
+        <v>6648</v>
+      </c>
+      <c r="T11">
+        <v>4840</v>
+      </c>
+      <c r="U11">
+        <v>7427</v>
+      </c>
+      <c r="V11">
+        <v>6469</v>
+      </c>
+      <c r="W11">
+        <v>8431</v>
+      </c>
+      <c r="X11">
+        <v>6477</v>
+      </c>
+      <c r="Y11">
+        <v>3600</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>2884</v>
+      </c>
+      <c r="AB11">
+        <v>3531</v>
+      </c>
+      <c r="AC11">
+        <v>8521</v>
+      </c>
+      <c r="AD11" t="s">
         <v>60</v>
       </c>
-      <c r="P11">
-        <v>7096</v>
-      </c>
-      <c r="Q11">
-        <v>4361</v>
-      </c>
-      <c r="R11">
-        <v>2435</v>
-      </c>
-      <c r="S11">
-        <v>4726</v>
-      </c>
-      <c r="T11">
-        <v>6421</v>
-      </c>
-      <c r="U11">
-        <v>6941</v>
-      </c>
-      <c r="V11">
-        <v>7184</v>
-      </c>
-      <c r="W11">
-        <v>5500</v>
-      </c>
-      <c r="X11">
-        <v>3689</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>3317</v>
-      </c>
-      <c r="AA11">
-        <v>6148</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>63</v>
-      </c>
       <c r="AE11" t="s">
         <v>63</v>
       </c>
@@ -1917,8 +1942,14 @@
       <c r="AN11" t="s">
         <v>63</v>
       </c>
+      <c r="AO11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1961,54 +1992,51 @@
       <c r="N12">
         <v>809</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>60</v>
+      </c>
+      <c r="R12">
+        <v>7096</v>
+      </c>
+      <c r="S12">
+        <v>4361</v>
+      </c>
+      <c r="T12">
+        <v>2435</v>
+      </c>
+      <c r="U12">
+        <v>4726</v>
+      </c>
+      <c r="V12">
+        <v>6421</v>
+      </c>
+      <c r="W12">
+        <v>6941</v>
+      </c>
+      <c r="X12">
+        <v>7184</v>
+      </c>
+      <c r="Y12">
+        <v>5500</v>
+      </c>
+      <c r="Z12">
+        <v>3689</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>3317</v>
+      </c>
+      <c r="AC12">
+        <v>6148</v>
+      </c>
+      <c r="AD12" t="s">
         <v>61</v>
       </c>
-      <c r="P12">
-        <v>7551</v>
-      </c>
-      <c r="Q12">
-        <v>5223</v>
-      </c>
-      <c r="R12">
-        <v>5159</v>
-      </c>
-      <c r="S12">
-        <v>7718</v>
-      </c>
-      <c r="T12">
-        <v>9144</v>
-      </c>
-      <c r="U12">
-        <v>9665</v>
-      </c>
-      <c r="V12">
-        <v>9908</v>
-      </c>
-      <c r="W12">
-        <v>6374</v>
-      </c>
-      <c r="X12">
-        <v>3893</v>
-      </c>
-      <c r="Y12">
-        <v>3442</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>4553</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>63</v>
-      </c>
       <c r="AE12" t="s">
         <v>63</v>
       </c>
@@ -2039,8 +2067,14 @@
       <c r="AN12" t="s">
         <v>63</v>
       </c>
+      <c r="AO12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2083,83 +2117,660 @@
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13">
+        <v>7551</v>
+      </c>
+      <c r="S13">
+        <v>5223</v>
+      </c>
+      <c r="T13">
+        <v>5159</v>
+      </c>
+      <c r="U13">
+        <v>7718</v>
+      </c>
+      <c r="V13">
+        <v>9144</v>
+      </c>
+      <c r="W13">
+        <v>9665</v>
+      </c>
+      <c r="X13">
+        <v>9908</v>
+      </c>
+      <c r="Y13">
+        <v>6374</v>
+      </c>
+      <c r="Z13">
+        <v>3893</v>
+      </c>
+      <c r="AA13">
+        <v>3442</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>4553</v>
+      </c>
+      <c r="AD13" t="s">
         <v>62</v>
       </c>
-      <c r="P13">
+      <c r="AE13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14">
         <v>3227</v>
       </c>
-      <c r="Q13">
+      <c r="S14">
         <v>3764</v>
       </c>
-      <c r="R13">
+      <c r="T14">
         <v>4452</v>
       </c>
-      <c r="S13">
+      <c r="U14">
         <v>7330</v>
       </c>
-      <c r="T13">
+      <c r="V14">
         <v>9507</v>
       </c>
-      <c r="U13">
+      <c r="W14">
         <v>10511</v>
       </c>
-      <c r="V13">
+      <c r="X14">
         <v>10205</v>
       </c>
-      <c r="W13">
+      <c r="Y14">
         <v>10440</v>
       </c>
-      <c r="X13">
+      <c r="Z14">
         <v>6593</v>
       </c>
-      <c r="Y13">
+      <c r="AA14">
         <v>4658</v>
       </c>
-      <c r="Z13">
+      <c r="AB14">
         <v>5114</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>63</v>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+      <c r="X17">
+        <v>6</v>
+      </c>
+      <c r="Y17">
+        <v>7</v>
+      </c>
+      <c r="Z17">
+        <v>8</v>
+      </c>
+      <c r="AA17">
+        <v>9</v>
+      </c>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>3683</v>
+      </c>
+      <c r="T18" s="1">
+        <v>7034</v>
+      </c>
+      <c r="U18" s="1">
+        <v>6087</v>
+      </c>
+      <c r="V18" s="1">
+        <v>9628</v>
+      </c>
+      <c r="W18" s="1">
+        <v>9719</v>
+      </c>
+      <c r="X18" s="1">
+        <v>10667</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>7722</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5520</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>4732</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>3291</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="19" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>5146</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>2661</v>
+      </c>
+      <c r="U19">
+        <v>4171</v>
+      </c>
+      <c r="V19">
+        <v>5522</v>
+      </c>
+      <c r="W19">
+        <v>9784</v>
+      </c>
+      <c r="X19">
+        <v>10731</v>
+      </c>
+      <c r="Y19">
+        <v>7370</v>
+      </c>
+      <c r="Z19">
+        <v>5833</v>
+      </c>
+      <c r="AA19">
+        <v>5357</v>
+      </c>
+      <c r="AB19">
+        <v>5808</v>
+      </c>
+      <c r="AC19">
+        <v>6382</v>
+      </c>
+    </row>
+    <row r="20" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>6477</v>
+      </c>
+      <c r="S20">
+        <v>3600</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>2884</v>
+      </c>
+      <c r="V20">
+        <v>3531</v>
+      </c>
+      <c r="W20">
+        <v>8521</v>
+      </c>
+      <c r="X20">
+        <v>9469</v>
+      </c>
+      <c r="Y20">
+        <v>6648</v>
+      </c>
+      <c r="Z20">
+        <v>4840</v>
+      </c>
+      <c r="AA20">
+        <v>7427</v>
+      </c>
+      <c r="AB20">
+        <v>6469</v>
+      </c>
+      <c r="AC20">
+        <v>8431</v>
+      </c>
+    </row>
+    <row r="21" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>7184</v>
+      </c>
+      <c r="S21">
+        <v>5500</v>
+      </c>
+      <c r="T21">
+        <v>3689</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>3317</v>
+      </c>
+      <c r="W21">
+        <v>6148</v>
+      </c>
+      <c r="X21">
+        <v>7096</v>
+      </c>
+      <c r="Y21">
+        <v>4361</v>
+      </c>
+      <c r="Z21">
+        <v>2435</v>
+      </c>
+      <c r="AA21">
+        <v>4726</v>
+      </c>
+      <c r="AB21">
+        <v>6421</v>
+      </c>
+      <c r="AC21">
+        <v>6941</v>
+      </c>
+    </row>
+    <row r="22" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>9908</v>
+      </c>
+      <c r="S22">
+        <v>6374</v>
+      </c>
+      <c r="T22">
+        <v>3893</v>
+      </c>
+      <c r="U22">
+        <v>3442</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>4553</v>
+      </c>
+      <c r="X22">
+        <v>7551</v>
+      </c>
+      <c r="Y22">
+        <v>5223</v>
+      </c>
+      <c r="Z22">
+        <v>5159</v>
+      </c>
+      <c r="AA22">
+        <v>7718</v>
+      </c>
+      <c r="AB22">
+        <v>9144</v>
+      </c>
+      <c r="AC22">
+        <v>9665</v>
+      </c>
+    </row>
+    <row r="23" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>5</v>
+      </c>
+      <c r="R23">
+        <v>10205</v>
+      </c>
+      <c r="S23">
+        <v>10440</v>
+      </c>
+      <c r="T23">
+        <v>6593</v>
+      </c>
+      <c r="U23">
+        <v>4658</v>
+      </c>
+      <c r="V23">
+        <v>5114</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>3227</v>
+      </c>
+      <c r="Y23">
+        <v>3764</v>
+      </c>
+      <c r="Z23">
+        <v>4452</v>
+      </c>
+      <c r="AA23">
+        <v>7330</v>
+      </c>
+      <c r="AB23">
+        <v>9507</v>
+      </c>
+      <c r="AC23">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="24" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>11777</v>
+      </c>
+      <c r="S24">
+        <v>11325</v>
+      </c>
+      <c r="T24">
+        <v>9744</v>
+      </c>
+      <c r="U24">
+        <v>7586</v>
+      </c>
+      <c r="V24">
+        <v>7874</v>
+      </c>
+      <c r="W24">
+        <v>3366</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>4142</v>
+      </c>
+      <c r="Z24">
+        <v>6898</v>
+      </c>
+      <c r="AA24">
+        <v>6716</v>
+      </c>
+      <c r="AB24">
+        <v>7999</v>
+      </c>
+      <c r="AC24">
+        <v>11537</v>
+      </c>
+    </row>
+    <row r="25" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25">
+        <v>8101</v>
+      </c>
+      <c r="S25">
+        <v>8436</v>
+      </c>
+      <c r="T25">
+        <v>7412</v>
+      </c>
+      <c r="U25">
+        <v>4039</v>
+      </c>
+      <c r="V25">
+        <v>4037</v>
+      </c>
+      <c r="W25">
+        <v>4340</v>
+      </c>
+      <c r="X25">
+        <v>3408</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>2344</v>
+      </c>
+      <c r="AA25">
+        <v>4384</v>
+      </c>
+      <c r="AB25">
+        <v>5789</v>
+      </c>
+      <c r="AC25">
+        <v>7858</v>
+      </c>
+    </row>
+    <row r="26" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>6643</v>
+      </c>
+      <c r="S26">
+        <v>6474</v>
+      </c>
+      <c r="T26">
+        <v>4485</v>
+      </c>
+      <c r="U26">
+        <v>3343</v>
+      </c>
+      <c r="V26">
+        <v>4922</v>
+      </c>
+      <c r="W26">
+        <v>4202</v>
+      </c>
+      <c r="X26">
+        <v>6366</v>
+      </c>
+      <c r="Y26">
+        <v>2895</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>4184</v>
+      </c>
+      <c r="AB26">
+        <v>5879</v>
+      </c>
+      <c r="AC26">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="27" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27">
+        <v>6118</v>
+      </c>
+      <c r="S27">
+        <v>6092</v>
+      </c>
+      <c r="T27">
+        <v>5976</v>
+      </c>
+      <c r="U27">
+        <v>4259</v>
+      </c>
+      <c r="V27">
+        <v>6671</v>
+      </c>
+      <c r="W27">
+        <v>6184</v>
+      </c>
+      <c r="X27">
+        <v>6124</v>
+      </c>
+      <c r="Y27">
+        <v>3049</v>
+      </c>
+      <c r="Z27">
+        <v>2826</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>2215</v>
+      </c>
+      <c r="AC27">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="28" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>10</v>
+      </c>
+      <c r="R28">
+        <v>4221</v>
+      </c>
+      <c r="S28">
+        <v>4556</v>
+      </c>
+      <c r="T28">
+        <v>6361</v>
+      </c>
+      <c r="U28">
+        <v>5117</v>
+      </c>
+      <c r="V28">
+        <v>7462</v>
+      </c>
+      <c r="W28">
+        <v>8738</v>
+      </c>
+      <c r="X28">
+        <v>9686</v>
+      </c>
+      <c r="Y28">
+        <v>5214</v>
+      </c>
+      <c r="Z28">
+        <v>5188</v>
+      </c>
+      <c r="AA28">
+        <v>2225</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="29" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>11</v>
+      </c>
+      <c r="R29">
+        <v>2460</v>
+      </c>
+      <c r="S29">
+        <v>5945</v>
+      </c>
+      <c r="T29">
+        <v>8691</v>
+      </c>
+      <c r="U29">
+        <v>7301</v>
+      </c>
+      <c r="V29">
+        <v>9743</v>
+      </c>
+      <c r="W29">
+        <v>11019</v>
+      </c>
+      <c r="X29">
+        <v>11967</v>
+      </c>
+      <c r="Y29">
+        <v>9007</v>
+      </c>
+      <c r="Z29">
+        <v>7797</v>
+      </c>
+      <c r="AA29">
+        <v>6254</v>
+      </c>
+      <c r="AB29">
+        <v>2287</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
